--- a/SAM 1.2 (Padronizado)/arquivo_cliente/arquivo_consolidado_todos.xlsx
+++ b/SAM 1.2 (Padronizado)/arquivo_cliente/arquivo_consolidado_todos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Magal\Desktop\SAM 1.2 (Padronizado)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Magal\Desktop\SAM 1.2 (Padronizado)\arquivo_cliente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C032A6-A165-4CBE-9DF1-79F438BDF5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C90345-780A-43EC-9628-86E9DCE46530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="riachuelo" sheetId="8" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">daki!$A$1:$AP$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">fleury!$A$1:$AU$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">fleury!$A$1:$AV$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">localiza!$A$1:$AY$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">pague_menos!$A$1:$Y$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">puc!$A$1:$AV$1</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="97">
   <si>
     <t>Nº da Conta</t>
   </si>
@@ -325,6 +325,9 @@
   </si>
   <si>
     <t>AVB</t>
+  </si>
+  <si>
+    <t>Razão Social (Cliente)</t>
   </si>
 </sst>
 </file>
@@ -770,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D44943E-8598-47A2-8013-1DFB21CD8F10}">
   <dimension ref="A1:AZ1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AG36" sqref="AG36"/>
+    <sheetView topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AQ1" sqref="AQ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1556,9 +1559,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4129F97-85CE-4B5C-9694-450DA2D0FE1A}">
   <dimension ref="A1:AV1"/>
   <sheetViews>
-    <sheetView topLeftCell="AO1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AV2" sqref="AV2"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1604,12 +1607,12 @@
     <col min="40" max="40" width="21.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="20.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="39.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="8.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="39.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="7.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="9.140625" style="7"/>
+    <col min="43" max="43" width="9.140625" style="7"/>
+    <col min="44" max="44" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="39.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="8.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="39.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="7.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="12" style="7" customWidth="1"/>
     <col min="50" max="16384" width="9.140625" style="7"/>
   </cols>
@@ -1634,7 +1637,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>6</v>
@@ -1741,27 +1744,26 @@
       <c r="AP1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AQ1" s="11" t="s">
+      <c r="AQ1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AR1" s="10" t="s">
+      <c r="AS1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AS1" s="10" t="s">
+      <c r="AT1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AT1" s="10" t="s">
+      <c r="AU1" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AU1" s="10" t="s">
+      <c r="AV1" s="10" t="s">
         <v>52</v>
-      </c>
-      <c r="AV1" s="10" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AU1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1958,7 +1960,7 @@
   <customSheetViews>
     <customSheetView guid="{CB75592A-5940-456F-98EA-7CA21283A3F8}" filter="1" showAutoFilter="1">
       <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-      <autoFilter ref="A1:AP140" xr:uid="{61C846E0-4C7C-4E55-9F82-6B44DDE61661}">
+      <autoFilter ref="A1:AP140" xr:uid="{EFE5D94C-1FC1-4AEF-B0E3-F4DAB25B8A2F}">
         <filterColumn colId="0">
           <filters>
             <filter val="116502452"/>
